--- a/excel/~配置文件请存放于此处 (去除~即可导出示例).xlsx
+++ b/excel/~配置文件请存放于此处 (去除~即可导出示例).xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\RuneTactics\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\x2j\xlsx2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B095310-5443-473C-90A3-5771BF41EFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2703055-358C-4C54-91D7-727C622BAEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DemoMaster" sheetId="1" r:id="rId1"/>
-    <sheet name="DemoSlave@DemoMaster" sheetId="2" r:id="rId2"/>
-    <sheet name="DemoArraySlave@DemoMaster" sheetId="4" r:id="rId3"/>
-    <sheet name="DemoArrayMaster" sheetId="3" r:id="rId4"/>
+    <sheet name="~工具使用指南" sheetId="5" r:id="rId1"/>
+    <sheet name="DemoMaster" sheetId="1" r:id="rId2"/>
+    <sheet name="DemoSlave@DemoMaster" sheetId="2" r:id="rId3"/>
+    <sheet name="DemoArraySlave@DemoMaster" sheetId="4" r:id="rId4"/>
+    <sheet name="DemoArrayMaster" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="247">
   <si>
     <t>示例主表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,10 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gewgweg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vweb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,18 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gwegw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vevrer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ehthrrh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bwevwvwe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,18 +353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qfwfwef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vewgerg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vrehth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>berbe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -777,13 +750,1763 @@
   </si>
   <si>
     <t>1:"1asf",219:"fsa"</t>
+  </si>
+  <si>
+    <t>中国第一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>China No1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`number`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 数字类型，数值类型不强制声明默认为number类型。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`int`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 32位整型类型。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`int64`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 64位整型类型。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`float`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 单精度浮点数类型。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`int[]`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 32位整型数组类型。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`int64[]`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 64位整型数组类型。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`float[]`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 单精度浮点数数组类型。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`bool`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  布尔。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`bool[]`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  布尔数组。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`string`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 字符串。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`string[]`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 字符串数组。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`date`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 日期类型。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`object`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 对象，同JS对象一致。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`array`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  数组，同JS数组一致。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`id`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 主键类型(当表中有id类型时，json会以hash格式输出，否则以array格式输出)。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`id[]`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 主键数组，只存在于从表中。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`intid`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 整数型主键类型(当表中有id类型时，json会以hash格式输出，否则以array格式输出)。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`intid[]`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 整数型主键数组，只存在于从表中。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持以下数据类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 基本数据类型(string,number,bool)时候，一般不需要设置会自动判断，但是也可以明确声明数据类型。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 字符串类型：命名形式 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`列名#string`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 数字类型：命名形式 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`列名#number`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 或者 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`列名#int`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 或者 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`列名#int64`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 或者 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`列名#float`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 日期类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`列名#date`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 。日期格式要符合标准日期格式。比如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`YYYY/M/D H:m:s`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 或者 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`YYYY/M/D`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 等等。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 布尔类型：命名形式 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`列名#bool`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 数组：命名形式 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`列名#[]`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 或者 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`列名#int[]`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 或者 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`列名#int64[]`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 或者 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`列名#float[]`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>。数组书写可以不加左右两边的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`[]`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>方括号。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 对象：命名形式 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`列名#{}`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>。数组书写可以不加左右两边的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`{}`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>大括号。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 主键：命名形式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`列名#id`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 或者 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`列名#intid`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,表中只能有一列。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 主键数组：命名形式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`列名#id[]`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 或者 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`列名#intid[]`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>，表中只能有一列，只存在于从表中。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 列类型 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`留空不填写`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 或 以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`~`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>开头 则不导出此列。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 首列不设置具体数据配置，首列的数据行以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`~`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>开头的一行则不导出此行。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 首列首行（表的第一格）填写的描述注释为生成出的脚本注释。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 列名字以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`_`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>开头则导出单独一份只包含此列的Json至dest1(Server)中，dest2(Client)不导出，并且</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`_`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>开头会被移除，所以注意命名不要冲突。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`id`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 主键类型或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`id[]`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 主键数组不需要加开头。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表头规则</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 文件名字以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`~`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>开头则不导出此文件下的所有表。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sheet名字以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`~`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>开头则不导出此表。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sheet名字以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`_`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>开头则导出此表至dest1(Server)中，dest2(Client)不导出，并且</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`_`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>开头会被移除，所以注意命名不要冲突。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 从表的名字 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`从表名字@主表名字`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>，主表必须在从表的前面。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> master表必须是hash类型，即必须有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`#id`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>列。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> slave表名字 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`slave名字@master名字`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>，master表的顺序必须在slave表的前面。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> slave表中必须要有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`#id`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>列或者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`#id[]`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>列。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 如果将master表中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`#{}列`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>拆分，则slave表中应为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`#id`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>，值为master表的id。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 如果将master表中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`#[]列`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>拆分，则slave表中应为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`#id[]`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>，值为master表的id。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 具体请看示例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`./excel/~配置文件请存放于此处 (去除~即可导出示例).xlsx`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 此文件亦会在初始配置完成后出现在配置文件夹中。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t># sheet</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规则</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主从表相关规则</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(master/slave)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具使用指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  ※ 更多表格示例请查看下面其他的Sheet！！！</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="22"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👇👇👇👇👇👇👇👇👇</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ※ 本表的文件名删除~号后可以测试本工具导表功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ※ 更多使用教程请查阅工具xlsx2json文件夹下README.md文档！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,8 +2528,73 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF6796E6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF569CD6"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="22"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="22"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -816,6 +2604,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF262626"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,12 +2641,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1140,11 +2955,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0485D91-A2DA-4028-9755-EBF1399981B4}">
+  <dimension ref="A1:M67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:1" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+    </row>
+    <row r="62" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A65:M67"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A59:M61"/>
+    <mergeCell ref="A62:M64"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1225,13 +3484,13 @@
         <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1278,22 +3537,22 @@
         <v>24</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1322,22 +3581,22 @@
         <v>76</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="U3" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1369,22 +3628,22 @@
         <v>77</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="P4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="T4" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1422,22 +3681,22 @@
         <v>76</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="T5" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1466,19 +3725,19 @@
         <v>76</v>
       </c>
       <c r="P6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="T6" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1513,22 +3772,22 @@
         <v>76</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1563,19 +3822,19 @@
         <v>76</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1607,22 +3866,22 @@
         <v>76</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1651,19 +3910,19 @@
         <v>76</v>
       </c>
       <c r="P10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="T10" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1692,22 +3951,22 @@
         <v>76</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1739,22 +3998,22 @@
         <v>76</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1792,22 +4051,22 @@
         <v>76</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1842,22 +4101,22 @@
         <v>76</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1889,22 +4148,22 @@
         <v>76</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1942,19 +4201,19 @@
         <v>76</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1986,22 +4245,22 @@
         <v>76</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2039,19 +4298,19 @@
         <v>76</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R18" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="S18" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2083,22 +4342,22 @@
         <v>76</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2136,22 +4395,22 @@
         <v>76</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2186,22 +4445,22 @@
         <v>76</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2233,22 +4492,22 @@
         <v>76</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2283,22 +4542,22 @@
         <v>76</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2307,7 +4566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE91761-17F2-4499-8E85-3E0AAF49660A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -2322,21 +4581,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2369,7 +4628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7546C0A-B5BD-474B-B5AB-76B68E1E34FB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2384,27 +4643,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2412,10 +4671,10 @@
         <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2423,10 +4682,10 @@
         <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2434,10 +4693,10 @@
         <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2446,7 +4705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332E9873-EA27-4BB5-A36F-367C23F431D5}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2461,27 +4720,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2492,7 +4751,7 @@
         <v>10.02</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2503,7 +4762,7 @@
         <v>2.0129999999999999</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2514,7 +4773,7 @@
         <v>0.15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/excel/~配置文件请存放于此处 (去除~即可导出示例).xlsx
+++ b/excel/~配置文件请存放于此处 (去除~即可导出示例).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\x2j\xlsx2json\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\BaoHuWoFangShuiJing\Tools\xlsx2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2703055-358C-4C54-91D7-727C622BAEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8753AC67-A7A1-4780-B547-8C304A01BFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6675" yWindow="1455" windowWidth="21600" windowHeight="11385" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="~工具使用指南" sheetId="5" r:id="rId1"/>
@@ -500,10 +500,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"key1":12,"key2":213</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"key1":12,"key2":215</t>
   </si>
   <si>
@@ -1099,38 +1095,6 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>`string[]`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 字符串数组。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
       <t>`date`</t>
     </r>
     <r>
@@ -1141,38 +1105,6 @@
         <family val="3"/>
       </rPr>
       <t xml:space="preserve"> 日期类型。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`object`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 对象，同JS对象一致。</t>
     </r>
   </si>
   <si>
@@ -2499,6 +2431,134 @@
   </si>
   <si>
     <t xml:space="preserve">  ※ 更多使用教程请查阅工具xlsx2json文件夹下README.md文档！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`string[]`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符串数组。数组中字符串可以不用引号，但不能使用JSON中所用符号，包括英文状态下逗号，冒号等</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`object`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象，同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象一致。键名可以不用引号，但不能使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中所用符号，包括英文状态下逗号，冒号等</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key1:12,key2:213</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2506,7 +2566,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2592,6 +2652,19 @@
       <color theme="6" tint="-0.249977111117893"/>
       <name val="Segoe UI Symbol"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2959,7 +3032,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2969,7 +3042,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -3016,192 +3089,192 @@
     </row>
     <row r="4" spans="1:13" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
@@ -3212,42 +3285,42 @@
     </row>
     <row r="48" spans="1:1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -3294,7 +3367,7 @@
     </row>
     <row r="62" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -3341,7 +3414,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -3402,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3423,7 +3496,7 @@
     <col min="16" max="16" width="25" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="16.125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="26.75" style="1" customWidth="1"/>
-    <col min="20" max="20" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.25" style="1" customWidth="1"/>
     <col min="21" max="21" width="26.125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="13.75" style="1"/>
   </cols>
@@ -3484,13 +3557,13 @@
         <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3546,13 +3619,13 @@
         <v>114</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3581,7 +3654,7 @@
         <v>76</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>115</v>
@@ -3596,7 +3669,7 @@
         <v>122</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3628,7 +3701,7 @@
         <v>77</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>116</v>
@@ -3643,7 +3716,7 @@
         <v>123</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3696,7 +3769,7 @@
         <v>124</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3734,10 +3807,10 @@
         <v>109</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>125</v>
+        <v>246</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3784,10 +3857,10 @@
         <v>110</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3831,10 +3904,10 @@
         <v>108</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3878,10 +3951,10 @@
         <v>108</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3919,10 +3992,10 @@
         <v>108</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3963,10 +4036,10 @@
         <v>108</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3998,7 +4071,7 @@
         <v>76</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>121</v>
@@ -4010,10 +4083,10 @@
         <v>108</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4051,7 +4124,7 @@
         <v>76</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>121</v>
@@ -4063,10 +4136,10 @@
         <v>108</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4101,7 +4174,7 @@
         <v>76</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>121</v>
@@ -4113,10 +4186,10 @@
         <v>108</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4160,10 +4233,10 @@
         <v>108</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4210,10 +4283,10 @@
         <v>108</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4257,10 +4330,10 @@
         <v>108</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4307,10 +4380,10 @@
         <v>108</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4342,7 +4415,7 @@
         <v>76</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>121</v>
@@ -4354,10 +4427,10 @@
         <v>108</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4395,7 +4468,7 @@
         <v>76</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>121</v>
@@ -4407,10 +4480,10 @@
         <v>108</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4445,7 +4518,7 @@
         <v>76</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>121</v>
@@ -4457,10 +4530,10 @@
         <v>108</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4504,10 +4577,10 @@
         <v>108</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4554,10 +4627,10 @@
         <v>108</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4584,18 +4657,18 @@
         <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4643,27 +4716,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4671,10 +4744,10 @@
         <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4682,10 +4755,10 @@
         <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4693,10 +4766,10 @@
         <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4720,27 +4793,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4751,7 +4824,7 @@
         <v>10.02</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4762,7 +4835,7 @@
         <v>2.0129999999999999</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4773,7 +4846,7 @@
         <v>0.15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/excel/~配置文件请存放于此处 (去除~即可导出示例).xlsx
+++ b/excel/~配置文件请存放于此处 (去除~即可导出示例).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\BaoHuWoFangShuiJing\Tools\xlsx2json\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\SlidingSea\Tools\xlsx2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8753AC67-A7A1-4780-B547-8C304A01BFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45573624-2F9B-46D2-8C50-DDFD1F8A9C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6675" yWindow="1455" windowWidth="21600" windowHeight="11385" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30435" yWindow="1995" windowWidth="23880" windowHeight="12615" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="~工具使用指南" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="248">
   <si>
     <t>示例主表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2560,13 +2560,48 @@
   <si>
     <t>key1:12,key2:213</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 表明以英文符号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`()`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>括号包裹的部分不会导出，可以作为编辑状态下提示的表名或备注。</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2666,6 +2701,27 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF6796E6"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFCE9178"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2714,7 +2770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2742,6 +2798,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3029,10 +3088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0485D91-A2DA-4028-9755-EBF1399981B4}">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3277,66 +3336,56 @@
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
+    <row r="46" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:1" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:13" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+    <row r="60" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -3365,10 +3414,8 @@
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
     </row>
-    <row r="62" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
-        <v>241</v>
-      </c>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -3382,8 +3429,10 @@
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
+    <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>241</v>
+      </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -3413,9 +3462,7 @@
       <c r="M64" s="8"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
-        <v>242</v>
-      </c>
+      <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -3430,7 +3477,9 @@
       <c r="M65" s="8"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
+      <c r="A66" s="8" t="s">
+        <v>242</v>
+      </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -3459,12 +3508,27 @@
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
     </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A65:M67"/>
+    <mergeCell ref="A66:M68"/>
     <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A59:M61"/>
-    <mergeCell ref="A62:M64"/>
+    <mergeCell ref="A60:M62"/>
+    <mergeCell ref="A63:M65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/~配置文件请存放于此处 (去除~即可导出示例).xlsx
+++ b/excel/~配置文件请存放于此处 (去除~即可导出示例).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\SlidingSea\Tools\xlsx2json\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\WoYaoDangJunShen\Tools\xlsx2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45573624-2F9B-46D2-8C50-DDFD1F8A9C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC807AD-2907-4A83-8A6D-2EDAD023D711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30435" yWindow="1995" windowWidth="23880" windowHeight="12615" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="~工具使用指南" sheetId="5" r:id="rId1"/>
@@ -999,38 +999,6 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>`bool`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">  布尔。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
       <t>`bool[]`</t>
     </r>
     <r>
@@ -2595,6 +2563,49 @@
       </rPr>
       <t>括号包裹的部分不会导出，可以作为编辑状态下提示的表名或备注。</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`bool`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>布尔。在确认类型的非数组情况下，只要值不为空、false、0、undefined、null、no都认为是真值。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2793,14 +2804,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3090,8 +3101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0485D91-A2DA-4028-9755-EBF1399981B4}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3100,36 +3111,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
@@ -3148,7 +3159,7 @@
     </row>
     <row r="4" spans="1:13" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
@@ -3186,159 +3197,159 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
-        <v>247</v>
+      <c r="A46" s="8" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
@@ -3349,179 +3360,179 @@
     </row>
     <row r="49" spans="1:13" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
+      <c r="A60" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3871,7 +3882,7 @@
         <v>109</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>177</v>
